--- a/biology/Botanique/Althenia/Althenia.xlsx
+++ b/biology/Botanique/Althenia/Althenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Althenia est un genre de plante aquatique de la famille des Potamogetonaceae[1]. Il n'a longtemps été représenté que par un groupe de  trois espèces de Méditerranée et des eaux d'Afrique du Sud, mais le genre a été récemment révisé pour y inclure le genre australien apparenté Lepilaena[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Althenia est un genre de plante aquatique de la famille des Potamogetonaceae. Il n'a longtemps été représenté que par un groupe de  trois espèces de Méditerranée et des eaux d'Afrique du Sud, mais le genre a été récemment révisé pour y inclure le genre australien apparenté Lepilaena.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Algaebase et WoRMS
 Althenia filiformis Petit, 1929 Holotype
